--- a/document/20220514_djtkuwaganon_1_横壁キャリブログ.xlsx
+++ b/document/20220514_djtkuwaganon_1_横壁キャリブログ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtfdl\GitHub\djtkuwaganon\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{734B2AB5-4FD8-481D-B1F0-99E749CC53CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34B9128-DB3D-4774-B6F7-44FCD539D46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="21480" windowWidth="38640" windowHeight="15840" xr2:uid="{D3965484-9702-4FCD-AE85-6AC110011073}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D3965484-9702-4FCD-AE85-6AC110011073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet8" sheetId="8" r:id="rId1"/>
@@ -351,19 +351,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,19 +729,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,7 +2429,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2464,13 +2464,13 @@
         <v>2382</v>
       </c>
       <c r="B2" s="1">
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D2" s="1">
         <v>1855</v>
       </c>
       <c r="E2" s="1">
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -2484,13 +2484,13 @@
         <v>891</v>
       </c>
       <c r="B3" s="1">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D3" s="1">
         <v>765</v>
       </c>
       <c r="E3" s="1">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>5</v>
@@ -2504,13 +2504,13 @@
         <v>442</v>
       </c>
       <c r="B4" s="1">
-        <v>0.45</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D4" s="1">
         <v>406</v>
       </c>
       <c r="E4" s="1">
-        <v>0.45</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -2524,13 +2524,13 @@
         <v>250</v>
       </c>
       <c r="B5" s="1">
-        <v>0.55000000000000004</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D5" s="1">
         <v>264</v>
       </c>
       <c r="E5" s="1">
-        <v>0.55000000000000004</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2538,13 +2538,13 @@
         <v>160</v>
       </c>
       <c r="B6" s="1">
-        <v>0.65</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D6" s="1">
         <v>166</v>
       </c>
       <c r="E6" s="1">
-        <v>0.65</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
